--- a/biology/Zoologie/Dendrolague_de_Matschie/Dendrolague_de_Matschie.xlsx
+++ b/biology/Zoologie/Dendrolague_de_Matschie/Dendrolague_de_Matschie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrolagus matschiei
 Le Dendrolague de Matschie (Dendrolagus matschiei) est une espèce de marsupial arboricole de la famille des Macropodidae et du genre Dendrolagus. Il est endémique de l'île de Nouvelle-Guinée.
@@ -513,7 +525,9 @@
           <t>Description physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure sans la queue 50 à 80 cm de long et pèse de 9 à 11 kg pour le mâle, de 7 à 9 kg pour la femelle. Son pelage va du roux au brun. Le ventre, les jambes et le bout des oreilles sont beige ou blancs.
 Il se distingue du Dendrolague de Goodfellow qui lui est très proche par la couleur claire de sa queue et l'absence de rayures sur le dos.
@@ -546,7 +560,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts humides de montagne à des altitudes comprises entre 1 000 et 3 300 m dans la péninsule de Huon au Nord-Est de la Nouvelle-Guinée. Il a tendance à vivre seul ou en très petit groupe, généralement composé du couple et des jeunes. Il passe la plupart de son temps dans les arbres et descend parfois sur le sol pour se nourrir.
 Dans la nature, il se nourrit de feuilles, de fruits et de mousses. Dans les jardins zoologiques, on le nourrit de pommes, de carottes, d'ignames, de maïs, le céleri, chou frisé et de divers types de feuilles (orme, saule, etc.).
